--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3810617.462112472</v>
+        <v>3808729.880596068</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>569719.059750709</v>
+        <v>741148.2547411146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>165.2346790503163</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>332.6474817216071</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.14483238681421</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>278.4584322661225</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>326.2396125556947</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>237.3965091869241</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.956353853466</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>177.4671311412365</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>93.58428350197349</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056506</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>73.04607632044149</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8064269214862</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>58.4267016389897</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>37.76285827049804</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1916.245359491378</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C2" t="n">
-        <v>1916.245359491378</v>
+        <v>807.9143472167302</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>807.9143472167302</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>807.9143472167302</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.245359491378</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117927</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2350.78839318292</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675914</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
         <v>498.8626623130036</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1612.648978880278</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1226.860726282034</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>815.874821492426</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2367.614128840753</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2014.845473570639</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.379715309559</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.240383333747</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454148</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>843.966611796629</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
         <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750118</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
         <v>1604.839867667473</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,13 +5440,13 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476518</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706311</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336704</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5671,7 +5671,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,22 +5698,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531122</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387937</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018332</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>531.397718270632</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6072,19 +6072,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>712.817008502768</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>712.817008502768</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688071</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765181</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706311</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336703</v>
+        <v>1115.258052476538</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>1115.258052476538</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>894.4654733330077</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155901</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1425.132355082709</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1201.346939872215</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>912.2183010857727</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>657.5338128798859</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>429.5442619818685</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163799</v>
+        <v>545.5472734739662</v>
       </c>
       <c r="C31" t="n">
-        <v>545.547273473966</v>
+        <v>545.5472734739662</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430012</v>
+        <v>451.1914993430014</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430012</v>
+        <v>451.1914993430014</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276533</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1842.66752361594</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1674.642973686817</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1441.275200181746</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1242.35157725723</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818948</v>
+        <v>1008.695272501641</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652487</v>
+        <v>836.4665868849943</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652487</v>
+        <v>671.4348730228349</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6683,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>618.7675319762805</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1423.179110240431</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,52 +6935,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605665</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,25 +7175,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2056.693778606511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2056.693778606511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599077</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>48.84084321165321</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>88.181289470362</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>109.0558671953545</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338636</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>192.9387148346175</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338659</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>124.8747336631618</v>
       </c>
       <c r="T28" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.61686283108095</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>104.954695084548</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
       <c r="K2" t="n">
-        <v>732279.847221485</v>
+        <v>732279.8472214849</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778563</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778562</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778563</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778563</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26418,37 +26418,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759055</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.79369057589</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759301</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758136</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477241</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189637</v>
@@ -26457,7 +26457,7 @@
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071827</v>
+        <v>-72948.50358071839</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338261</v>
+        <v>517019.375633826</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.375633826</v>
+        <v>517019.3756338259</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168772</v>
+        <v>85819.69228571493</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885834</v>
+        <v>610979.728762611</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885828</v>
+        <v>610979.728762611</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885832</v>
+        <v>610979.7287626109</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885834</v>
+        <v>610979.7287626109</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959902</v>
+        <v>434556.509570018</v>
       </c>
       <c r="K6" t="n">
-        <v>572536.6171836441</v>
+        <v>572518.1234457095</v>
       </c>
       <c r="L6" t="n">
-        <v>607672.9993250679</v>
+        <v>607672.9993250677</v>
       </c>
       <c r="M6" t="n">
-        <v>483214.8908920976</v>
+        <v>483214.8908920973</v>
       </c>
       <c r="N6" t="n">
         <v>618015.9061259346</v>
@@ -26561,7 +26561,7 @@
         <v>618015.9061259346</v>
       </c>
       <c r="P6" t="n">
-        <v>573853.3008230887</v>
+        <v>573853.3008230889</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108341</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>55.20325662855718</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>189.4483625703667</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74.22856402010439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.3335701879975</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>135.3257377546725</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>1.512645914440213</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>75.23878421646982</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.238049662788398e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31364,10 +31364,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,25 +31832,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>141.3402618185959</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,28 +32069,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>4.797192695341153</v>
+        <v>4.797192695340925</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32725,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,28 +33269,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>201.5176914958845</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>203.2475969558513</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>90.02710286925503</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>489.3409240788161</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>352.7978549555614</v>
+        <v>352.7978549555611</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,10 +35969,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502078</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>525.0887213238661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>526.8186267838329</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629098</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>274.515464094862</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,10 +37865,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>274.515464094862</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,10 +38102,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
